--- a/figures/6_FlyBack/BarChart1.xlsx
+++ b/figures/6_FlyBack/BarChart1.xlsx
@@ -120,20 +120,15 @@
                     <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU"/>
-              <a:t>Payload Variation</a:t>
+              <a:t>Payload Variation (kg) per % Parameter Variation</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" baseline="0"/>
-              <a:t> (kg) per % Parameter Variation</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -158,9 +153,9 @@
                   <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -203,32 +198,6 @@
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -269,9 +238,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -279,9 +246,9 @@
                     <a:solidFill>
                       <a:schemeClr val="lt1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -469,11 +436,11 @@
         </c:dLbls>
         <c:gapWidth val="65"/>
         <c:overlap val="100"/>
-        <c:axId val="446300208"/>
-        <c:axId val="446323248"/>
+        <c:axId val="454360080"/>
+        <c:axId val="454393824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446300208"/>
+        <c:axId val="454360080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -508,15 +475,15 @@
                     <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446323248"/>
+        <c:crossAx val="454393824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -524,7 +491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446323248"/>
+        <c:axId val="454393824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -580,15 +547,15 @@
                     <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446300208"/>
+        <c:crossAx val="454360080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -624,7 +591,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1571,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>

--- a/figures/6_FlyBack/BarChart1.xlsx
+++ b/figures/6_FlyBack/BarChart1.xlsx
@@ -436,11 +436,11 @@
         </c:dLbls>
         <c:gapWidth val="65"/>
         <c:overlap val="100"/>
-        <c:axId val="454360080"/>
-        <c:axId val="454393824"/>
+        <c:axId val="206093736"/>
+        <c:axId val="467536664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="454360080"/>
+        <c:axId val="206093736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -468,7 +468,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
@@ -483,7 +483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454393824"/>
+        <c:crossAx val="467536664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -491,7 +491,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="454393824"/>
+        <c:axId val="467536664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-2"/>
@@ -540,7 +540,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
@@ -555,7 +555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454360080"/>
+        <c:crossAx val="206093736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -591,7 +591,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr b="1">
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -1541,7 +1541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>

--- a/figures/6_FlyBack/BarChart1.xlsx
+++ b/figures/6_FlyBack/BarChart1.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -115,10 +115,7 @@
             <a:pPr>
               <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -148,10 +145,7 @@
           <a:pPr>
             <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -208,6 +202,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-D9F4-494F-ADC4-F1D9F7F1232F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -228,6 +225,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D9F4-494F-ADC4-F1D9F7F1232F}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -244,7 +244,7 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -341,6 +341,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D9F4-494F-ADC4-F1D9F7F1232F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -424,6 +429,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D9F4-494F-ADC4-F1D9F7F1232F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="inEnd"/>
@@ -470,10 +480,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -542,10 +549,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -592,6 +596,9 @@
     <a:p>
       <a:pPr>
         <a:defRPr b="1">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
@@ -1542,7 +1549,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C5" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
